--- a/file_export/nang_luong/danhsach_form.xlsx
+++ b/file_export/nang_luong/danhsach_form.xlsx
@@ -69,17 +69,10 @@
     <t>Chức vụ</t>
   </si>
   <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
     <t>BAN TỔ CHỨC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐOÀN TNCS HỒ CHÍ MINH
-</t>
   </si>
   <si>
     <t>DANH SÁCH</t>
@@ -88,10 +81,17 @@
     <t>NÂNG BẬC LƯƠNG THƯỜNG XUYÊN CỦA CÔNG CHỨC, VIÊN CHỨC</t>
   </si>
   <si>
-    <t>CƠ QUAN TRUNG ƯƠNG ĐOÀN NĂM</t>
+    <t>------</t>
   </si>
   <si>
-    <t>------</t>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CƠ QUAN </t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -408,6 +408,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,6 +440,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,32 +480,8 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,7 +791,7 @@
   <dimension ref="A1:X1939"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:W10"/>
+      <selection activeCell="A6" sqref="A6:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -821,255 +824,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="1"/>
+      <c r="R1" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+    </row>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="1"/>
-      <c r="R1" s="57" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A3" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>17</v>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>23</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A3" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+    </row>
+    <row r="7" spans="1:24" ht="45" customHeight="1">
+      <c r="A7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-    </row>
-    <row r="5" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A5" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-    </row>
-    <row r="6" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A6" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-    </row>
-    <row r="7" spans="1:24" ht="45" customHeight="1">
-      <c r="A7" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
     </row>
     <row r="8" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
       <c r="Q8" s="40"/>
-      <c r="R8" s="47" t="s">
+      <c r="R8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
     </row>
     <row r="9" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="43" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="49" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="38"/>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="41" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="47" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="14"/>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="48" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="39"/>
-      <c r="P9" s="42" t="s">
+      <c r="P9" s="48" t="s">
         <v>4</v>
       </c>
       <c r="Q9" s="38"/>
-      <c r="R9" s="43" t="s">
+      <c r="R9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="43" t="s">
+      <c r="S9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="54" t="s">
+      <c r="U9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="52" t="s">
+      <c r="V9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="50" t="s">
+      <c r="W9" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="60.75" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="56"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="38"/>
-      <c r="L10" s="41"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="48"/>
       <c r="O10" s="39"/>
-      <c r="P10" s="42"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="51"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A11" s="25"/>
@@ -50208,6 +50211,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="R1:W1"/>
     <mergeCell ref="A7:W7"/>
@@ -50224,15 +50236,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:P8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.23622047244094491" header="0.15748031496062992" footer="0.23622047244094491"/>
